--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st01.xlsx
@@ -35,11 +35,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lava and Kroos, having been sent to Yen by Nian, save an unlucky Messenger, Mr.Nothing. They take him up on his offer to serve as a guide, and he leads them to Mount Hui-ch'i.
+    <t xml:space="preserve">Lava and Kroos, having been sent to Yen by Nian, save an unlucky Messenger, Mr. Nothing. They take him up on his offer to serve as a guide, and he leads them to Mount Hui-ch'i.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">니엔의 의뢰를 받고 염국으로 온 라바와 크루스에 의해 도움을 받은 불운한 전달자 우요우. 길잡이를 자청한 우요우는 사람들을 이끌고 회제산으로 향하게 되는데…….
+    <t xml:space="preserve">니엔의 의뢰를 받고 염국으로 온 라바와 크루스에 의해 도움을 받은 불운한 전달자 우요우. 길잡이를 자청한 우요우는 사람들을 이끌고 회제산으로 향하게 되는데……
 </t>
   </si>
 </sst>
